--- a/csillagaszat.xlsx
+++ b/csillagaszat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\András\Desktop\ppa\MI\kviz\Új mappa\7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\András\Desktop\ppa\MI\kviz\Új mappa\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E4480-1230-4AB2-AA02-A2130C22F9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C415383-1682-4B2B-8D0B-E9273D8BAF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>napforduló</t>
   </si>
   <si>
-    <t>Nevezd meg IV.21.(22.)-ét! Nyári …</t>
-  </si>
-  <si>
     <t>Ponthatárok</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>1;</t>
+  </si>
+  <si>
+    <t>Nevezd meg VI.21.(22.)-ét! Nyári …</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:M26"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>30</v>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -733,16 +733,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -753,16 +753,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -773,19 +773,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -794,21 +794,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -879,16 +879,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2">
         <v>6</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2">
         <v>6</v>
@@ -1064,16 +1064,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
       </c>
       <c r="J25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
         <v>59</v>
-      </c>
-      <c r="K25" t="s">
-        <v>60</v>
       </c>
       <c r="L25" s="2">
         <v>4</v>
